--- a/time_statistics_2025-03-14.xlsx
+++ b/time_statistics_2025-03-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B564"/>
+  <dimension ref="A1:B573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,7 +519,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>85.01666666666667</v>
+        <v>209.2333333333333</v>
       </c>
       <c r="B11" t="n">
         <v>2880</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>69.8</v>
+        <v>194.2</v>
       </c>
       <c r="B12" t="n">
         <v>2880</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>209.2333333333333</v>
+        <v>171.3666666666667</v>
       </c>
       <c r="B13" t="n">
         <v>2880</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>194.2</v>
+        <v>158.3333333333333</v>
       </c>
       <c r="B14" t="n">
         <v>2880</v>
@@ -551,7 +551,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>171.3666666666667</v>
+        <v>153.9</v>
       </c>
       <c r="B15" t="n">
         <v>2880</v>
@@ -559,7 +559,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>158.3333333333333</v>
+        <v>146.6666666666667</v>
       </c>
       <c r="B16" t="n">
         <v>2880</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>153.9</v>
+        <v>137.8</v>
       </c>
       <c r="B17" t="n">
         <v>2880</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>146.6666666666667</v>
+        <v>147.2</v>
       </c>
       <c r="B18" t="n">
         <v>2880</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>137.8</v>
+        <v>145.8</v>
       </c>
       <c r="B19" t="n">
         <v>2880</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>147.2</v>
+        <v>218.3</v>
       </c>
       <c r="B20" t="n">
         <v>2880</v>
@@ -599,7 +599,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>145.8</v>
+        <v>219.2333333333333</v>
       </c>
       <c r="B21" t="n">
         <v>2880</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>218.3</v>
+        <v>165.1833333333333</v>
       </c>
       <c r="B22" t="n">
         <v>2880</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>219.2333333333333</v>
+        <v>157.0666666666667</v>
       </c>
       <c r="B23" t="n">
         <v>2880</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>165.1833333333333</v>
+        <v>163.8333333333333</v>
       </c>
       <c r="B24" t="n">
         <v>2880</v>
@@ -631,7 +631,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>157.0666666666667</v>
+        <v>150.5166666666667</v>
       </c>
       <c r="B25" t="n">
         <v>2880</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>163.8333333333333</v>
+        <v>144.2</v>
       </c>
       <c r="B26" t="n">
         <v>2880</v>
@@ -647,7 +647,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>150.5166666666667</v>
+        <v>134.2333333333333</v>
       </c>
       <c r="B27" t="n">
         <v>2880</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>144.2</v>
+        <v>316.7333333333333</v>
       </c>
       <c r="B28" t="n">
         <v>2880</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>134.2333333333333</v>
+        <v>322.9333333333333</v>
       </c>
       <c r="B29" t="n">
         <v>2880</v>
@@ -671,7 +671,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>316.7333333333333</v>
+        <v>314.1166666666667</v>
       </c>
       <c r="B30" t="n">
         <v>2880</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>322.9333333333333</v>
+        <v>326</v>
       </c>
       <c r="B31" t="n">
         <v>2880</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>314.1166666666667</v>
+        <v>328.4</v>
       </c>
       <c r="B32" t="n">
         <v>2880</v>
@@ -695,7 +695,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>326</v>
+        <v>315.3166666666667</v>
       </c>
       <c r="B33" t="n">
         <v>2880</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>328.4</v>
+        <v>302.0833333333333</v>
       </c>
       <c r="B34" t="n">
         <v>2880</v>
@@ -711,7 +711,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>315.3166666666667</v>
+        <v>326.9666666666666</v>
       </c>
       <c r="B35" t="n">
         <v>2880</v>
@@ -719,7 +719,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>302.0833333333333</v>
+        <v>320.3833333333333</v>
       </c>
       <c r="B36" t="n">
         <v>2880</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>326.9666666666666</v>
+        <v>311.45</v>
       </c>
       <c r="B37" t="n">
         <v>2880</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>320.3833333333333</v>
+        <v>319.0833333333333</v>
       </c>
       <c r="B38" t="n">
         <v>2880</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>311.45</v>
+        <v>342.3666666666667</v>
       </c>
       <c r="B39" t="n">
         <v>2880</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>319.0833333333333</v>
+        <v>301.25</v>
       </c>
       <c r="B40" t="n">
         <v>2880</v>
@@ -759,7 +759,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>342.3666666666667</v>
+        <v>354.6166666666667</v>
       </c>
       <c r="B41" t="n">
         <v>2880</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>301.25</v>
+        <v>44.46666666666667</v>
       </c>
       <c r="B42" t="n">
         <v>2880</v>
@@ -775,7 +775,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>354.6166666666667</v>
+        <v>45.56666666666667</v>
       </c>
       <c r="B43" t="n">
         <v>2880</v>
@@ -783,7 +783,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>44.46666666666667</v>
+        <v>49.05</v>
       </c>
       <c r="B44" t="n">
         <v>2880</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>45.56666666666667</v>
+        <v>44.63333333333333</v>
       </c>
       <c r="B45" t="n">
         <v>2880</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>49.05</v>
+        <v>60.96666666666667</v>
       </c>
       <c r="B46" t="n">
         <v>2880</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>44.63333333333333</v>
+        <v>67.41666666666667</v>
       </c>
       <c r="B47" t="n">
         <v>2880</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>60.96666666666667</v>
+        <v>94.71666666666667</v>
       </c>
       <c r="B48" t="n">
         <v>2880</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>67.41666666666667</v>
+        <v>87.06666666666666</v>
       </c>
       <c r="B49" t="n">
         <v>2880</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>94.71666666666667</v>
+        <v>43.86666666666667</v>
       </c>
       <c r="B50" t="n">
         <v>2880</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>87.06666666666666</v>
+        <v>40.86666666666667</v>
       </c>
       <c r="B51" t="n">
         <v>2880</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>43.86666666666667</v>
+        <v>49.31666666666667</v>
       </c>
       <c r="B52" t="n">
         <v>2880</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>40.86666666666667</v>
+        <v>59.83333333333334</v>
       </c>
       <c r="B53" t="n">
         <v>2880</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>49.31666666666667</v>
+        <v>55.71666666666667</v>
       </c>
       <c r="B54" t="n">
         <v>2880</v>
@@ -871,7 +871,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>59.83333333333334</v>
+        <v>65.33333333333333</v>
       </c>
       <c r="B55" t="n">
         <v>2880</v>
@@ -879,7 +879,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>55.71666666666667</v>
+        <v>74.25</v>
       </c>
       <c r="B56" t="n">
         <v>2880</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>65.33333333333333</v>
+        <v>67.15000000000001</v>
       </c>
       <c r="B57" t="n">
         <v>2880</v>
@@ -895,7 +895,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>74.25</v>
+        <v>44.78333333333333</v>
       </c>
       <c r="B58" t="n">
         <v>2880</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>67.15000000000001</v>
+        <v>47.68333333333333</v>
       </c>
       <c r="B59" t="n">
         <v>2880</v>
@@ -911,7 +911,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>44.78333333333333</v>
+        <v>56.05</v>
       </c>
       <c r="B60" t="n">
         <v>2880</v>
@@ -919,7 +919,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>47.68333333333333</v>
+        <v>63.45</v>
       </c>
       <c r="B61" t="n">
         <v>2880</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>56.05</v>
+        <v>71.65000000000001</v>
       </c>
       <c r="B62" t="n">
         <v>2880</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>63.45</v>
+        <v>209.5666666666667</v>
       </c>
       <c r="B63" t="n">
         <v>2880</v>
@@ -943,7 +943,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>71.65000000000001</v>
+        <v>212.1333333333333</v>
       </c>
       <c r="B64" t="n">
         <v>2880</v>
@@ -951,7 +951,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>209.5666666666667</v>
+        <v>164.9666666666667</v>
       </c>
       <c r="B65" t="n">
         <v>2880</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>212.1333333333333</v>
+        <v>161.0666666666667</v>
       </c>
       <c r="B66" t="n">
         <v>2880</v>
@@ -967,7 +967,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>164.9666666666667</v>
+        <v>150.7333333333333</v>
       </c>
       <c r="B67" t="n">
         <v>2880</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>161.0666666666667</v>
+        <v>149.5166666666667</v>
       </c>
       <c r="B68" t="n">
         <v>2880</v>
@@ -983,7 +983,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>150.7333333333333</v>
+        <v>151.0166666666667</v>
       </c>
       <c r="B69" t="n">
         <v>2880</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>149.5166666666667</v>
+        <v>216.1</v>
       </c>
       <c r="B70" t="n">
         <v>2880</v>
@@ -999,7 +999,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>151.0166666666667</v>
+        <v>206.3</v>
       </c>
       <c r="B71" t="n">
         <v>2880</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>216.1</v>
+        <v>152</v>
       </c>
       <c r="B72" t="n">
         <v>2880</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>206.3</v>
+        <v>164.1833333333333</v>
       </c>
       <c r="B73" t="n">
         <v>2880</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>152</v>
+        <v>150.0166666666667</v>
       </c>
       <c r="B74" t="n">
         <v>2880</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>164.1833333333333</v>
+        <v>223.3666666666667</v>
       </c>
       <c r="B75" t="n">
         <v>2880</v>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>150.0166666666667</v>
+        <v>181.3166666666667</v>
       </c>
       <c r="B76" t="n">
         <v>2880</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>223.3666666666667</v>
+        <v>159.1</v>
       </c>
       <c r="B77" t="n">
         <v>2880</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>181.3166666666667</v>
+        <v>174.3</v>
       </c>
       <c r="B78" t="n">
         <v>2880</v>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>159.1</v>
+        <v>151.0166666666667</v>
       </c>
       <c r="B79" t="n">
         <v>2880</v>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>174.3</v>
+        <v>150.75</v>
       </c>
       <c r="B80" t="n">
         <v>2880</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>151.0166666666667</v>
+        <v>135.0333333333333</v>
       </c>
       <c r="B81" t="n">
         <v>2880</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>150.75</v>
+        <v>290.5333333333334</v>
       </c>
       <c r="B82" t="n">
         <v>2880</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>135.0333333333333</v>
+        <v>298.4666666666666</v>
       </c>
       <c r="B83" t="n">
         <v>2880</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>290.5333333333334</v>
+        <v>341.3333333333333</v>
       </c>
       <c r="B84" t="n">
         <v>2880</v>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>298.4666666666666</v>
+        <v>337.0166666666667</v>
       </c>
       <c r="B85" t="n">
         <v>2880</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>341.3333333333333</v>
+        <v>315.4833333333333</v>
       </c>
       <c r="B86" t="n">
         <v>2880</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>337.0166666666667</v>
+        <v>304.8666666666667</v>
       </c>
       <c r="B87" t="n">
         <v>2880</v>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>315.4833333333333</v>
+        <v>322.75</v>
       </c>
       <c r="B88" t="n">
         <v>2880</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>304.8666666666667</v>
+        <v>319.3666666666667</v>
       </c>
       <c r="B89" t="n">
         <v>2880</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>322.75</v>
+        <v>334</v>
       </c>
       <c r="B90" t="n">
         <v>2880</v>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>319.3666666666667</v>
+        <v>315.15</v>
       </c>
       <c r="B91" t="n">
         <v>2880</v>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>334</v>
+        <v>344.7833333333334</v>
       </c>
       <c r="B92" t="n">
         <v>2880</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>315.15</v>
+        <v>44.81666666666667</v>
       </c>
       <c r="B93" t="n">
         <v>2880</v>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>44.81666666666667</v>
+        <v>46.98333333333333</v>
       </c>
       <c r="B94" t="n">
         <v>2880</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>46.98333333333333</v>
+        <v>53.66666666666666</v>
       </c>
       <c r="B95" t="n">
         <v>2880</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>53.66666666666666</v>
+        <v>49.01666666666667</v>
       </c>
       <c r="B96" t="n">
         <v>2880</v>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>49.01666666666667</v>
+        <v>64.43333333333334</v>
       </c>
       <c r="B97" t="n">
         <v>2880</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>64.43333333333334</v>
+        <v>80.46666666666667</v>
       </c>
       <c r="B98" t="n">
         <v>2880</v>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>44.91666666666666</v>
+        <v>76.11666666666666</v>
       </c>
       <c r="B99" t="n">
         <v>2880</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>97.8</v>
+        <v>44.91666666666666</v>
       </c>
       <c r="B100" t="n">
         <v>2880</v>
@@ -1239,55 +1239,55 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>5.116666666666666</v>
+        <v>51.85</v>
       </c>
       <c r="B101" t="n">
-        <v>10080</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>182.0333333333333</v>
+        <v>54.8</v>
       </c>
       <c r="B102" t="n">
-        <v>12000</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>74.61666666666666</v>
+        <v>97.8</v>
       </c>
       <c r="B103" t="n">
-        <v>12000</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>333.6833333333333</v>
+        <v>5.116666666666666</v>
       </c>
       <c r="B104" t="n">
-        <v>12000</v>
+        <v>10080</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>87.90000000000001</v>
+        <v>182.0333333333333</v>
       </c>
       <c r="B105" t="n">
-        <v>2880</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>102.65</v>
+        <v>333.6833333333333</v>
       </c>
       <c r="B106" t="n">
-        <v>2880</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>227.6</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="B107" t="n">
         <v>2880</v>
@@ -1295,15 +1295,15 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.15</v>
+        <v>102.65</v>
       </c>
       <c r="B108" t="n">
-        <v>43200</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>4.283333333333333</v>
+        <v>227.6</v>
       </c>
       <c r="B109" t="n">
         <v>2880</v>
@@ -1311,23 +1311,23 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.15</v>
+        <v>10.16666666666667</v>
       </c>
       <c r="B110" t="n">
-        <v>43200</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.2166666666666667</v>
+        <v>11.03333333333333</v>
       </c>
       <c r="B111" t="n">
-        <v>43200</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>4.266666666666667</v>
+        <v>2.133333333333333</v>
       </c>
       <c r="B112" t="n">
         <v>2880</v>
@@ -1335,15 +1335,15 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.2166666666666667</v>
+        <v>1.4</v>
       </c>
       <c r="B113" t="n">
-        <v>43200</v>
+        <v>60</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>10.16666666666667</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="B114" t="n">
         <v>2880</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>11.03333333333333</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="B115" t="n">
         <v>2880</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>2.133333333333333</v>
+        <v>0.1833333333333333</v>
       </c>
       <c r="B116" t="n">
         <v>2880</v>
@@ -1367,15 +1367,15 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="B117" t="n">
-        <v>60</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.01666666666666667</v>
+        <v>0.1833333333333333</v>
       </c>
       <c r="B118" t="n">
         <v>2880</v>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.7833333333333333</v>
+        <v>0.3</v>
       </c>
       <c r="B119" t="n">
         <v>2880</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.1833333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="B120" t="n">
         <v>2880</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.2</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="B121" t="n">
         <v>2880</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.1833333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="B122" t="n">
         <v>2880</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.3</v>
+        <v>9.683333333333334</v>
       </c>
       <c r="B123" t="n">
         <v>2880</v>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.2</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="B124" t="n">
         <v>2880</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.3166666666666667</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="B125" t="n">
         <v>2880</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.45</v>
       </c>
       <c r="B126" t="n">
         <v>2880</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>9.683333333333334</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="B127" t="n">
         <v>2880</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.4</v>
       </c>
       <c r="B128" t="n">
         <v>2880</v>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.45</v>
       </c>
       <c r="B129" t="n">
         <v>2880</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.45</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="B130" t="n">
         <v>2880</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.3166666666666667</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="B131" t="n">
         <v>2880</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="B132" t="n">
         <v>2880</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.45</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="B133" t="n">
         <v>2880</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.3833333333333334</v>
       </c>
       <c r="B134" t="n">
         <v>2880</v>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1833333333333333</v>
       </c>
       <c r="B135" t="n">
         <v>2880</v>
@@ -1519,7 +1519,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.35</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="B136" t="n">
         <v>2880</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2166666666666667</v>
       </c>
       <c r="B137" t="n">
         <v>2880</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.3833333333333334</v>
+        <v>0.4</v>
       </c>
       <c r="B138" t="n">
         <v>2880</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.1833333333333333</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="B139" t="n">
         <v>2880</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.3333333333333333</v>
+        <v>6.133333333333334</v>
       </c>
       <c r="B140" t="n">
         <v>2880</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.2166666666666667</v>
+        <v>0.3833333333333334</v>
       </c>
       <c r="B141" t="n">
         <v>2880</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.4</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="B142" t="n">
         <v>2880</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="B143" t="n">
         <v>2880</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>6.133333333333334</v>
+        <v>0.55</v>
       </c>
       <c r="B144" t="n">
         <v>2880</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.3833333333333334</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="B145" t="n">
         <v>2880</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.3</v>
       </c>
       <c r="B146" t="n">
         <v>2880</v>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="B147" t="n">
         <v>2880</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.55</v>
+        <v>0.65</v>
       </c>
       <c r="B148" t="n">
         <v>2880</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.2833333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="B149" t="n">
         <v>2880</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.3</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="B150" t="n">
         <v>2880</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="B151" t="n">
         <v>2880</v>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.65</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="B152" t="n">
         <v>2880</v>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="B153" t="n">
         <v>2880</v>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.6833333333333333</v>
+        <v>12.56666666666667</v>
       </c>
       <c r="B154" t="n">
         <v>2880</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.3166666666666667</v>
+        <v>0.55</v>
       </c>
       <c r="B155" t="n">
         <v>2880</v>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="B156" t="n">
         <v>2880</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="B157" t="n">
         <v>2880</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>12.56666666666667</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="B158" t="n">
         <v>2880</v>
@@ -1703,18 +1703,18 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.55</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="B159" t="n">
-        <v>2880</v>
+        <v>120</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.5666666666666667</v>
+        <v>1193.35</v>
       </c>
       <c r="B160" t="n">
-        <v>2880</v>
+        <v>43200</v>
       </c>
     </row>
     <row r="161">
@@ -1735,47 +1735,47 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.1333333333333333</v>
+        <v>55.38333333333333</v>
       </c>
       <c r="B163" t="n">
-        <v>120</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1193.35</v>
+        <v>62.45</v>
       </c>
       <c r="B164" t="n">
-        <v>43200</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.01666666666666667</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="B165" t="n">
-        <v>2880</v>
+        <v>120</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.01666666666666667</v>
+        <v>0.3833333333333334</v>
       </c>
       <c r="B166" t="n">
-        <v>2880</v>
+        <v>120</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>55.38333333333333</v>
+        <v>0.4833333333333333</v>
       </c>
       <c r="B167" t="n">
-        <v>2880</v>
+        <v>120</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>62.45</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="B168" t="n">
         <v>2880</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="B169" t="n">
         <v>120</v>
@@ -1791,26 +1791,26 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.3833333333333334</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="B170" t="n">
-        <v>120</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.4833333333333333</v>
+        <v>0.05</v>
       </c>
       <c r="B171" t="n">
-        <v>120</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="B172" t="n">
-        <v>2880</v>
+        <v>120</v>
       </c>
     </row>
     <row r="173">
@@ -1823,63 +1823,63 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.1333333333333333</v>
+        <v>0</v>
       </c>
       <c r="B174" t="n">
-        <v>2880</v>
+        <v>120</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.05</v>
+        <v>441.2</v>
       </c>
       <c r="B175" t="n">
-        <v>2880</v>
+        <v>10080</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.01666666666666667</v>
+        <v>26.01666666666667</v>
       </c>
       <c r="B176" t="n">
-        <v>120</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.01666666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="B177" t="n">
-        <v>120</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="B178" t="n">
-        <v>120</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>441.2</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="B179" t="n">
-        <v>10080</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>26.01666666666667</v>
+        <v>0</v>
       </c>
       <c r="B180" t="n">
-        <v>2880</v>
+        <v>120</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.9</v>
+        <v>1.05</v>
       </c>
       <c r="B181" t="n">
         <v>2880</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.2166666666666667</v>
       </c>
       <c r="B182" t="n">
         <v>2880</v>
@@ -1895,15 +1895,15 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.06666666666666667</v>
+        <v>0</v>
       </c>
       <c r="B183" t="n">
-        <v>2880</v>
+        <v>120</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="B184" t="n">
         <v>120</v>
@@ -1911,15 +1911,15 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="B185" t="n">
-        <v>2880</v>
+        <v>120</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.2166666666666667</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="B186" t="n">
         <v>2880</v>
@@ -1927,10 +1927,10 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="B187" t="n">
-        <v>120</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="188">
@@ -1938,20 +1938,20 @@
         <v>0.01666666666666667</v>
       </c>
       <c r="B188" t="n">
-        <v>120</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="B189" t="n">
-        <v>120</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.01666666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="B190" t="n">
         <v>2880</v>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.01666666666666667</v>
+        <v>0.35</v>
       </c>
       <c r="B191" t="n">
         <v>2880</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0.01666666666666667</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="B192" t="n">
         <v>2880</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.01666666666666667</v>
+        <v>4.483333333333333</v>
       </c>
       <c r="B193" t="n">
         <v>2880</v>
@@ -1983,15 +1983,15 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.7</v>
+        <v>3.933333333333334</v>
       </c>
       <c r="B194" t="n">
-        <v>2880</v>
+        <v>120</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.35</v>
+        <v>55.31666666666667</v>
       </c>
       <c r="B195" t="n">
         <v>2880</v>
@@ -1999,15 +1999,15 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="B196" t="n">
-        <v>2880</v>
+        <v>120</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>4.483333333333333</v>
+        <v>31.95</v>
       </c>
       <c r="B197" t="n">
         <v>2880</v>
@@ -2015,15 +2015,15 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>3.933333333333334</v>
+        <v>231.8833333333333</v>
       </c>
       <c r="B198" t="n">
-        <v>120</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>55.31666666666667</v>
+        <v>0.05</v>
       </c>
       <c r="B199" t="n">
         <v>2880</v>
@@ -2031,15 +2031,15 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.05</v>
       </c>
       <c r="B200" t="n">
-        <v>120</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>31.95</v>
+        <v>0.05</v>
       </c>
       <c r="B201" t="n">
         <v>2880</v>
@@ -2047,31 +2047,31 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>231.8833333333333</v>
+        <v>0.2</v>
       </c>
       <c r="B202" t="n">
-        <v>2880</v>
+        <v>120</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0.05</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="B203" t="n">
-        <v>2880</v>
+        <v>120</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0.05</v>
+        <v>1.05</v>
       </c>
       <c r="B204" t="n">
-        <v>2880</v>
+        <v>120</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0.05</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="B205" t="n">
         <v>2880</v>
@@ -2079,39 +2079,39 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>0.2</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="B206" t="n">
-        <v>120</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="B207" t="n">
-        <v>120</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>1.05</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="B208" t="n">
-        <v>120</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="B209" t="n">
-        <v>2880</v>
+        <v>120</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>0.1166666666666667</v>
+        <v>0.05</v>
       </c>
       <c r="B210" t="n">
         <v>2880</v>
@@ -2135,10 +2135,10 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>0.06666666666666667</v>
+        <v>153.8166666666667</v>
       </c>
       <c r="B213" t="n">
-        <v>120</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="214">
@@ -2151,7 +2151,7 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>0.03333333333333333</v>
+        <v>17.8</v>
       </c>
       <c r="B215" t="n">
         <v>2880</v>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>0.03333333333333333</v>
+        <v>18.91666666666667</v>
       </c>
       <c r="B216" t="n">
         <v>2880</v>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>153.8166666666667</v>
+        <v>1.25</v>
       </c>
       <c r="B217" t="n">
         <v>2880</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>0.05</v>
+        <v>0.7</v>
       </c>
       <c r="B218" t="n">
         <v>2880</v>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>17.8</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="B219" t="n">
         <v>2880</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>18.91666666666667</v>
+        <v>0.45</v>
       </c>
       <c r="B220" t="n">
         <v>2880</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>1.25</v>
+        <v>11.15</v>
       </c>
       <c r="B221" t="n">
         <v>2880</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>0.7</v>
+        <v>266.35</v>
       </c>
       <c r="B222" t="n">
         <v>2880</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="B223" t="n">
         <v>2880</v>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>11.15</v>
+        <v>0.95</v>
       </c>
       <c r="B225" t="n">
         <v>2880</v>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>266.35</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="B226" t="n">
         <v>2880</v>
@@ -2247,7 +2247,7 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>0.7666666666666667</v>
+        <v>18.95</v>
       </c>
       <c r="B227" t="n">
         <v>2880</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>0.45</v>
+        <v>0.9</v>
       </c>
       <c r="B228" t="n">
         <v>2880</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>0.95</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="B229" t="n">
         <v>2880</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="B230" t="n">
         <v>2880</v>
@@ -2279,7 +2279,7 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>18.95</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="B231" t="n">
         <v>2880</v>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>0.9</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="B232" t="n">
         <v>2880</v>
@@ -2295,15 +2295,15 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="B233" t="n">
-        <v>2880</v>
+        <v>120</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>0.75</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="B234" t="n">
         <v>2880</v>
@@ -2311,23 +2311,23 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>0.7833333333333333</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="B235" t="n">
-        <v>2880</v>
+        <v>120</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>0.03333333333333333</v>
+        <v>0</v>
       </c>
       <c r="B236" t="n">
-        <v>2880</v>
+        <v>120</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="B237" t="n">
         <v>120</v>
@@ -2335,15 +2335,15 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="B238" t="n">
-        <v>2880</v>
+        <v>120</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>0.01666666666666667</v>
+        <v>1.4</v>
       </c>
       <c r="B239" t="n">
         <v>120</v>
@@ -2351,39 +2351,39 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>0</v>
+        <v>1.316666666666667</v>
       </c>
       <c r="B240" t="n">
-        <v>120</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="B241" t="n">
-        <v>120</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="B242" t="n">
-        <v>120</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>1.4</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="B243" t="n">
-        <v>120</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>1.316666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="B244" t="n">
         <v>2880</v>
@@ -2391,7 +2391,7 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>0.9166666666666666</v>
+        <v>1.1</v>
       </c>
       <c r="B245" t="n">
         <v>2880</v>
@@ -2399,7 +2399,7 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.4833333333333333</v>
       </c>
       <c r="B246" t="n">
         <v>2880</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="B247" t="n">
         <v>2880</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>0.5</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="B248" t="n">
         <v>2880</v>
@@ -2423,7 +2423,7 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="B249" t="n">
         <v>2880</v>
@@ -2431,7 +2431,7 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>0.4833333333333333</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="B250" t="n">
         <v>2880</v>
@@ -2439,7 +2439,7 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.45</v>
       </c>
       <c r="B251" t="n">
         <v>2880</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="B252" t="n">
         <v>2880</v>
@@ -2455,7 +2455,7 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>1</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="B253" t="n">
         <v>2880</v>
@@ -2463,71 +2463,71 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>1.083333333333333</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="B254" t="n">
-        <v>2880</v>
+        <v>120</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="B255" t="n">
-        <v>2880</v>
+        <v>43200</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="B256" t="n">
-        <v>2880</v>
+        <v>120</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>0.9666666666666667</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="B257" t="n">
-        <v>2880</v>
+        <v>43200</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>0.01666666666666667</v>
+        <v>1.5</v>
       </c>
       <c r="B258" t="n">
-        <v>120</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>0.05</v>
+        <v>0.65</v>
       </c>
       <c r="B259" t="n">
-        <v>43200</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>0.8</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="B260" t="n">
-        <v>120</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>0.03333333333333333</v>
+        <v>1.3</v>
       </c>
       <c r="B261" t="n">
-        <v>43200</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="B262" t="n">
         <v>2880</v>
@@ -2535,7 +2535,7 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>0.65</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="B263" t="n">
         <v>2880</v>
@@ -2543,7 +2543,7 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>0.7166666666666667</v>
+        <v>1.516666666666667</v>
       </c>
       <c r="B264" t="n">
         <v>2880</v>
@@ -2551,7 +2551,7 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>1.3</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="B265" t="n">
         <v>2880</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>1.55</v>
+        <v>1.633333333333333</v>
       </c>
       <c r="B266" t="n">
         <v>2880</v>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>0.7166666666666667</v>
+        <v>1.7</v>
       </c>
       <c r="B267" t="n">
         <v>2880</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>1.516666666666667</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="B268" t="n">
         <v>2880</v>
@@ -2583,7 +2583,7 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>0.9333333333333333</v>
+        <v>1.683333333333333</v>
       </c>
       <c r="B269" t="n">
         <v>2880</v>
@@ -2591,7 +2591,7 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>1.633333333333333</v>
+        <v>1.75</v>
       </c>
       <c r="B270" t="n">
         <v>2880</v>
@@ -2599,50 +2599,50 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>1.7</v>
+        <v>0.1</v>
       </c>
       <c r="B271" t="n">
-        <v>2880</v>
+        <v>120</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.05</v>
       </c>
       <c r="B272" t="n">
-        <v>2880</v>
+        <v>120</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>1.683333333333333</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="B273" t="n">
-        <v>2880</v>
+        <v>43200</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>1.75</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="B274" t="n">
-        <v>2880</v>
+        <v>43200</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>0.1</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="B275" t="n">
-        <v>120</v>
+        <v>43200</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>0.05</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="B276" t="n">
-        <v>120</v>
+        <v>43200</v>
       </c>
     </row>
     <row r="277">
@@ -2655,10 +2655,10 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.05</v>
       </c>
       <c r="B278" t="n">
-        <v>43200</v>
+        <v>120</v>
       </c>
     </row>
     <row r="279">
@@ -2679,7 +2679,7 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="B281" t="n">
         <v>43200</v>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>0.05</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="B282" t="n">
         <v>120</v>
@@ -2714,44 +2714,44 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="B285" t="n">
-        <v>43200</v>
+        <v>120</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>0.03333333333333333</v>
+        <v>61.66666666666666</v>
       </c>
       <c r="B286" t="n">
-        <v>120</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.05</v>
       </c>
       <c r="B287" t="n">
-        <v>43200</v>
+        <v>120</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="B288" t="n">
-        <v>43200</v>
+        <v>120</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>0.06666666666666667</v>
+        <v>2.05</v>
       </c>
       <c r="B289" t="n">
-        <v>120</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>61.66666666666666</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="B290" t="n">
         <v>2880</v>
@@ -2759,39 +2759,39 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>0.05</v>
+        <v>2.35</v>
       </c>
       <c r="B291" t="n">
-        <v>120</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>0.01666666666666667</v>
+        <v>1.866666666666667</v>
       </c>
       <c r="B292" t="n">
-        <v>120</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>2.05</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="B293" t="n">
-        <v>2880</v>
+        <v>120</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>1.833333333333333</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="B294" t="n">
-        <v>2880</v>
+        <v>43200</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>2.35</v>
+        <v>1.783333333333333</v>
       </c>
       <c r="B295" t="n">
         <v>2880</v>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>1.866666666666667</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="B296" t="n">
         <v>2880</v>
@@ -2807,23 +2807,23 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>0.01666666666666667</v>
+        <v>21.98333333333333</v>
       </c>
       <c r="B297" t="n">
-        <v>120</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>1.916666666666667</v>
+        <v>125.9166666666667</v>
       </c>
       <c r="B298" t="n">
-        <v>43200</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>1.783333333333333</v>
+        <v>126.25</v>
       </c>
       <c r="B299" t="n">
         <v>2880</v>
@@ -2831,7 +2831,7 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>1.666666666666667</v>
+        <v>20.91666666666667</v>
       </c>
       <c r="B300" t="n">
         <v>2880</v>
@@ -2839,7 +2839,7 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>21.98333333333333</v>
+        <v>136.3166666666667</v>
       </c>
       <c r="B301" t="n">
         <v>2880</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>125.9166666666667</v>
+        <v>141.8</v>
       </c>
       <c r="B302" t="n">
         <v>2880</v>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>126.25</v>
+        <v>45.25</v>
       </c>
       <c r="B303" t="n">
         <v>2880</v>
@@ -2863,7 +2863,7 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>20.91666666666667</v>
+        <v>299.0833333333333</v>
       </c>
       <c r="B304" t="n">
         <v>2880</v>
@@ -2871,7 +2871,7 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>136.3166666666667</v>
+        <v>298.3666666666667</v>
       </c>
       <c r="B305" t="n">
         <v>2880</v>
@@ -2879,39 +2879,39 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>141.8</v>
+        <v>1070.933333333333</v>
       </c>
       <c r="B306" t="n">
-        <v>2880</v>
+        <v>10080</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>45.25</v>
+        <v>379.4333333333333</v>
       </c>
       <c r="B307" t="n">
-        <v>2880</v>
+        <v>43200</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>299.0833333333333</v>
+        <v>1067.233333333333</v>
       </c>
       <c r="B308" t="n">
-        <v>2880</v>
+        <v>10080</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>298.3666666666667</v>
+        <v>963.35</v>
       </c>
       <c r="B309" t="n">
-        <v>2880</v>
+        <v>10080</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>1070.933333333333</v>
+        <v>640.2333333333333</v>
       </c>
       <c r="B310" t="n">
         <v>10080</v>
@@ -2919,15 +2919,15 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>1067.233333333333</v>
+        <v>5.283333333333333</v>
       </c>
       <c r="B311" t="n">
-        <v>10080</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>963.35</v>
+        <v>476.0833333333333</v>
       </c>
       <c r="B312" t="n">
         <v>10080</v>
@@ -2935,23 +2935,23 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>640.2333333333333</v>
+        <v>1.633333333333333</v>
       </c>
       <c r="B313" t="n">
-        <v>10080</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>5.283333333333333</v>
+        <v>888.45</v>
       </c>
       <c r="B314" t="n">
-        <v>2880</v>
+        <v>10080</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>476.0833333333333</v>
+        <v>0.15</v>
       </c>
       <c r="B315" t="n">
         <v>10080</v>
@@ -2959,39 +2959,39 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>1.633333333333333</v>
+        <v>80.73333333333333</v>
       </c>
       <c r="B316" t="n">
-        <v>2880</v>
+        <v>5160</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>888.45</v>
+        <v>0.25</v>
       </c>
       <c r="B317" t="n">
-        <v>10080</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>0.15</v>
+        <v>3.55</v>
       </c>
       <c r="B318" t="n">
-        <v>10080</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>80.73333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="B319" t="n">
-        <v>5160</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="B320" t="n">
         <v>2880</v>
@@ -2999,7 +2999,7 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>3.55</v>
+        <v>0.3</v>
       </c>
       <c r="B321" t="n">
         <v>2880</v>
@@ -3007,63 +3007,63 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>0.3333333333333333</v>
+        <v>307.45</v>
       </c>
       <c r="B322" t="n">
-        <v>2880</v>
+        <v>10080</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>0.3333333333333333</v>
+        <v>40.95</v>
       </c>
       <c r="B323" t="n">
-        <v>2880</v>
+        <v>43200</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>0.3</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="B324" t="n">
-        <v>2880</v>
+        <v>120</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>307.45</v>
+        <v>13.1</v>
       </c>
       <c r="B325" t="n">
-        <v>10080</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>40.95</v>
+        <v>13.78333333333333</v>
       </c>
       <c r="B326" t="n">
-        <v>43200</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>0.2833333333333333</v>
+        <v>96.7</v>
       </c>
       <c r="B327" t="n">
-        <v>120</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>13.1</v>
+        <v>4.05</v>
       </c>
       <c r="B328" t="n">
-        <v>2880</v>
+        <v>120</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>13.78333333333333</v>
+        <v>63.03333333333333</v>
       </c>
       <c r="B329" t="n">
         <v>2880</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>96.7</v>
+        <v>29.58333333333333</v>
       </c>
       <c r="B330" t="n">
         <v>2880</v>
@@ -3079,15 +3079,15 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>4.05</v>
+        <v>43.1</v>
       </c>
       <c r="B331" t="n">
-        <v>120</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>63.03333333333333</v>
+        <v>26.81666666666667</v>
       </c>
       <c r="B332" t="n">
         <v>2880</v>
@@ -3095,7 +3095,7 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>29.58333333333333</v>
+        <v>39.71666666666667</v>
       </c>
       <c r="B333" t="n">
         <v>2880</v>
@@ -3103,7 +3103,7 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>43.1</v>
+        <v>25.98333333333333</v>
       </c>
       <c r="B334" t="n">
         <v>2880</v>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>26.81666666666667</v>
+        <v>46.3</v>
       </c>
       <c r="B335" t="n">
         <v>2880</v>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>39.71666666666667</v>
+        <v>38.1</v>
       </c>
       <c r="B336" t="n">
         <v>2880</v>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>25.98333333333333</v>
+        <v>31.71666666666667</v>
       </c>
       <c r="B337" t="n">
         <v>2880</v>
@@ -3135,7 +3135,7 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>46.3</v>
+        <v>35.8</v>
       </c>
       <c r="B338" t="n">
         <v>2880</v>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>38.1</v>
+        <v>52.5</v>
       </c>
       <c r="B339" t="n">
         <v>2880</v>
@@ -3151,7 +3151,7 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>31.71666666666667</v>
+        <v>43.9</v>
       </c>
       <c r="B340" t="n">
         <v>2880</v>
@@ -3159,7 +3159,7 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>35.8</v>
+        <v>29.91666666666667</v>
       </c>
       <c r="B341" t="n">
         <v>2880</v>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>52.5</v>
+        <v>35.58333333333334</v>
       </c>
       <c r="B342" t="n">
         <v>2880</v>
@@ -3175,7 +3175,7 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>43.9</v>
+        <v>50.25</v>
       </c>
       <c r="B343" t="n">
         <v>2880</v>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>29.91666666666667</v>
+        <v>45.48333333333333</v>
       </c>
       <c r="B344" t="n">
         <v>2880</v>
@@ -3191,7 +3191,7 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>35.58333333333334</v>
+        <v>41.66666666666666</v>
       </c>
       <c r="B345" t="n">
         <v>2880</v>
@@ -3199,7 +3199,7 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>50.25</v>
+        <v>36.8</v>
       </c>
       <c r="B346" t="n">
         <v>2880</v>
@@ -3207,7 +3207,7 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>45.48333333333333</v>
+        <v>32.88333333333333</v>
       </c>
       <c r="B347" t="n">
         <v>2880</v>
@@ -3215,7 +3215,7 @@
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>41.66666666666666</v>
+        <v>34.53333333333333</v>
       </c>
       <c r="B348" t="n">
         <v>2880</v>
@@ -3223,7 +3223,7 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>36.8</v>
+        <v>32.7</v>
       </c>
       <c r="B349" t="n">
         <v>2880</v>
@@ -3231,7 +3231,7 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>32.88333333333333</v>
+        <v>58.11666666666667</v>
       </c>
       <c r="B350" t="n">
         <v>2880</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>34.53333333333333</v>
+        <v>37.4</v>
       </c>
       <c r="B351" t="n">
         <v>2880</v>
@@ -3247,7 +3247,7 @@
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>32.7</v>
+        <v>40.9</v>
       </c>
       <c r="B352" t="n">
         <v>2880</v>
@@ -3255,31 +3255,31 @@
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>58.11666666666667</v>
+        <v>44.95</v>
       </c>
       <c r="B353" t="n">
-        <v>2880</v>
+        <v>10080</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>37.4</v>
+        <v>38.95</v>
       </c>
       <c r="B354" t="n">
-        <v>2880</v>
+        <v>10080</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>40.9</v>
+        <v>44.1</v>
       </c>
       <c r="B355" t="n">
-        <v>2880</v>
+        <v>10080</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>44.95</v>
+        <v>47.3</v>
       </c>
       <c r="B356" t="n">
         <v>10080</v>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>38.95</v>
+        <v>42.08333333333334</v>
       </c>
       <c r="B357" t="n">
         <v>10080</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>44.1</v>
+        <v>48.55</v>
       </c>
       <c r="B358" t="n">
         <v>10080</v>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>47.3</v>
+        <v>53.9</v>
       </c>
       <c r="B359" t="n">
         <v>10080</v>
@@ -3311,7 +3311,7 @@
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>42.08333333333334</v>
+        <v>54.15</v>
       </c>
       <c r="B360" t="n">
         <v>10080</v>
@@ -3319,7 +3319,7 @@
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>48.55</v>
+        <v>38.56666666666667</v>
       </c>
       <c r="B361" t="n">
         <v>10080</v>
@@ -3327,7 +3327,7 @@
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>53.9</v>
+        <v>54.93333333333333</v>
       </c>
       <c r="B362" t="n">
         <v>10080</v>
@@ -3335,7 +3335,7 @@
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>54.15</v>
+        <v>36.33333333333334</v>
       </c>
       <c r="B363" t="n">
         <v>10080</v>
@@ -3343,7 +3343,7 @@
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>38.56666666666667</v>
+        <v>42.86666666666667</v>
       </c>
       <c r="B364" t="n">
         <v>10080</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>54.93333333333333</v>
+        <v>45.71666666666667</v>
       </c>
       <c r="B365" t="n">
         <v>10080</v>
@@ -3359,7 +3359,7 @@
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>36.33333333333334</v>
+        <v>35.6</v>
       </c>
       <c r="B366" t="n">
         <v>10080</v>
@@ -3367,7 +3367,7 @@
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>42.86666666666667</v>
+        <v>54.41666666666666</v>
       </c>
       <c r="B367" t="n">
         <v>10080</v>
@@ -3375,47 +3375,47 @@
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>45.71666666666667</v>
+        <v>261.8833333333333</v>
       </c>
       <c r="B368" t="n">
-        <v>10080</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>35.6</v>
+        <v>45.63333333333333</v>
       </c>
       <c r="B369" t="n">
-        <v>10080</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>54.41666666666666</v>
+        <v>137.2333333333333</v>
       </c>
       <c r="B370" t="n">
-        <v>10080</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>261.8833333333333</v>
+        <v>125.3333333333333</v>
       </c>
       <c r="B371" t="n">
-        <v>2880</v>
+        <v>5760</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>45.63333333333333</v>
+        <v>1.2</v>
       </c>
       <c r="B372" t="n">
-        <v>2880</v>
+        <v>43200</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>137.2333333333333</v>
+        <v>5.75</v>
       </c>
       <c r="B373" t="n">
         <v>2880</v>
@@ -3423,47 +3423,47 @@
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>125.3333333333333</v>
+        <v>43.5</v>
       </c>
       <c r="B374" t="n">
-        <v>5760</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>1.2</v>
+        <v>498.7833333333334</v>
       </c>
       <c r="B375" t="n">
-        <v>43200</v>
+        <v>10080</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>5.75</v>
+        <v>569.2</v>
       </c>
       <c r="B376" t="n">
-        <v>2880</v>
+        <v>10080</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>43.5</v>
+        <v>529.1666666666666</v>
       </c>
       <c r="B377" t="n">
-        <v>2880</v>
+        <v>10080</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>498.7833333333334</v>
+        <v>53.95</v>
       </c>
       <c r="B378" t="n">
-        <v>10080</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>569.2</v>
+        <v>126.6666666666667</v>
       </c>
       <c r="B379" t="n">
         <v>10080</v>
@@ -3471,15 +3471,15 @@
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>529.1666666666666</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="B380" t="n">
-        <v>10080</v>
+        <v>120</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>53.95</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="B381" t="n">
         <v>2880</v>
@@ -3487,23 +3487,23 @@
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>126.6666666666667</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="B382" t="n">
-        <v>10080</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>1.333333333333333</v>
+        <v>1.216666666666667</v>
       </c>
       <c r="B383" t="n">
-        <v>120</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>0.03333333333333333</v>
+        <v>1.183333333333333</v>
       </c>
       <c r="B384" t="n">
         <v>2880</v>
@@ -3514,36 +3514,36 @@
         <v>0.01666666666666667</v>
       </c>
       <c r="B385" t="n">
-        <v>2880</v>
+        <v>10080</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>1.216666666666667</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="B386" t="n">
-        <v>2880</v>
+        <v>120</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>1.183333333333333</v>
+        <v>82.15000000000001</v>
       </c>
       <c r="B387" t="n">
-        <v>2880</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>0.01666666666666667</v>
+        <v>87.15000000000001</v>
       </c>
       <c r="B388" t="n">
-        <v>10080</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>0.01666666666666667</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="B389" t="n">
         <v>120</v>
@@ -3551,31 +3551,31 @@
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>82.15000000000001</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="B390" t="n">
-        <v>7200</v>
+        <v>120</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>87.15000000000001</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="B391" t="n">
-        <v>7200</v>
+        <v>120</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>0.2833333333333333</v>
+        <v>1.55</v>
       </c>
       <c r="B392" t="n">
-        <v>120</v>
+        <v>43200</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>0.01666666666666667</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="B393" t="n">
         <v>120</v>
@@ -3583,7 +3583,7 @@
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>0.03333333333333333</v>
+        <v>4.4</v>
       </c>
       <c r="B394" t="n">
         <v>120</v>
@@ -3591,15 +3591,15 @@
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>1.55</v>
+        <v>726.5166666666667</v>
       </c>
       <c r="B395" t="n">
-        <v>43200</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="B396" t="n">
         <v>120</v>
@@ -3607,7 +3607,7 @@
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>4.4</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="B397" t="n">
         <v>120</v>
@@ -3615,15 +3615,15 @@
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>726.5166666666667</v>
+        <v>11.23333333333333</v>
       </c>
       <c r="B398" t="n">
-        <v>2880</v>
+        <v>43200</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.15</v>
       </c>
       <c r="B399" t="n">
         <v>120</v>
@@ -3631,7 +3631,7 @@
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>0.1333333333333333</v>
+        <v>4.1</v>
       </c>
       <c r="B400" t="n">
         <v>120</v>
@@ -3639,39 +3639,39 @@
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>11.23333333333333</v>
+        <v>85.63333333333334</v>
       </c>
       <c r="B401" t="n">
-        <v>43200</v>
+        <v>120</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>0.15</v>
+        <v>74</v>
       </c>
       <c r="B402" t="n">
-        <v>120</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>4.1</v>
+        <v>58.91666666666666</v>
       </c>
       <c r="B403" t="n">
-        <v>120</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>85.63333333333334</v>
+        <v>69.03333333333333</v>
       </c>
       <c r="B404" t="n">
-        <v>120</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>74</v>
+        <v>73.34999999999999</v>
       </c>
       <c r="B405" t="n">
         <v>2880</v>
@@ -3679,7 +3679,7 @@
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>58.91666666666666</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="B406" t="n">
         <v>2880</v>
@@ -3687,7 +3687,7 @@
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>69.03333333333333</v>
+        <v>58.5</v>
       </c>
       <c r="B407" t="n">
         <v>2880</v>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>73.34999999999999</v>
+        <v>87.78333333333333</v>
       </c>
       <c r="B408" t="n">
         <v>2880</v>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>65.59999999999999</v>
+        <v>72.98333333333333</v>
       </c>
       <c r="B409" t="n">
         <v>2880</v>
@@ -3711,7 +3711,7 @@
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>58.5</v>
+        <v>79.65000000000001</v>
       </c>
       <c r="B410" t="n">
         <v>2880</v>
@@ -3719,7 +3719,7 @@
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>87.78333333333333</v>
+        <v>96.76666666666667</v>
       </c>
       <c r="B411" t="n">
         <v>2880</v>
@@ -3727,7 +3727,7 @@
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>72.98333333333333</v>
+        <v>80.21666666666667</v>
       </c>
       <c r="B412" t="n">
         <v>2880</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>79.65000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="B413" t="n">
         <v>2880</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>96.76666666666667</v>
+        <v>79.31666666666666</v>
       </c>
       <c r="B414" t="n">
         <v>2880</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>80.21666666666667</v>
+        <v>101.9666666666667</v>
       </c>
       <c r="B415" t="n">
         <v>2880</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>93.8</v>
+        <v>75.33333333333333</v>
       </c>
       <c r="B416" t="n">
         <v>2880</v>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>79.31666666666666</v>
+        <v>93.23333333333333</v>
       </c>
       <c r="B417" t="n">
         <v>2880</v>
@@ -3775,7 +3775,7 @@
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>101.9666666666667</v>
+        <v>99.08333333333333</v>
       </c>
       <c r="B418" t="n">
         <v>2880</v>
@@ -3783,7 +3783,7 @@
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>75.33333333333333</v>
+        <v>70.34999999999999</v>
       </c>
       <c r="B419" t="n">
         <v>2880</v>
@@ -3791,7 +3791,7 @@
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>93.23333333333333</v>
+        <v>104.65</v>
       </c>
       <c r="B420" t="n">
         <v>2880</v>
@@ -3799,7 +3799,7 @@
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>99.08333333333333</v>
+        <v>76.7</v>
       </c>
       <c r="B421" t="n">
         <v>2880</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>70.34999999999999</v>
+        <v>73.71666666666667</v>
       </c>
       <c r="B422" t="n">
         <v>2880</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>104.65</v>
+        <v>76.13333333333334</v>
       </c>
       <c r="B423" t="n">
         <v>2880</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>76.7</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="B424" t="n">
         <v>2880</v>
@@ -3831,7 +3831,7 @@
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>73.71666666666667</v>
+        <v>61.11666666666667</v>
       </c>
       <c r="B425" t="n">
         <v>2880</v>
@@ -3839,39 +3839,39 @@
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>76.13333333333334</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="B426" t="n">
-        <v>2880</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>87.90000000000001</v>
+        <v>99.86666666666666</v>
       </c>
       <c r="B427" t="n">
-        <v>2880</v>
+        <v>10080</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>61.11666666666667</v>
+        <v>32.3</v>
       </c>
       <c r="B428" t="n">
-        <v>2880</v>
+        <v>10080</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>0.2833333333333333</v>
+        <v>59.76666666666667</v>
       </c>
       <c r="B429" t="n">
-        <v>4320</v>
+        <v>10080</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>99.86666666666666</v>
+        <v>58.5</v>
       </c>
       <c r="B430" t="n">
         <v>10080</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>32.3</v>
+        <v>85.93333333333334</v>
       </c>
       <c r="B431" t="n">
         <v>10080</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>59.76666666666667</v>
+        <v>41.53333333333333</v>
       </c>
       <c r="B432" t="n">
         <v>10080</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>58.5</v>
+        <v>56.13333333333333</v>
       </c>
       <c r="B433" t="n">
         <v>10080</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>85.93333333333334</v>
+        <v>53.88333333333333</v>
       </c>
       <c r="B434" t="n">
         <v>10080</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>41.53333333333333</v>
+        <v>43.63333333333333</v>
       </c>
       <c r="B435" t="n">
         <v>10080</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>56.13333333333333</v>
+        <v>55.26666666666667</v>
       </c>
       <c r="B436" t="n">
         <v>10080</v>
@@ -3927,7 +3927,7 @@
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>53.88333333333333</v>
+        <v>57.95</v>
       </c>
       <c r="B437" t="n">
         <v>10080</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>43.63333333333333</v>
+        <v>51.6</v>
       </c>
       <c r="B438" t="n">
         <v>10080</v>
@@ -3943,7 +3943,7 @@
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>55.26666666666667</v>
+        <v>52.65</v>
       </c>
       <c r="B439" t="n">
         <v>10080</v>
@@ -3951,7 +3951,7 @@
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>57.95</v>
+        <v>51.68333333333333</v>
       </c>
       <c r="B440" t="n">
         <v>10080</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>51.6</v>
+        <v>201.65</v>
       </c>
       <c r="B441" t="n">
         <v>10080</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>52.65</v>
+        <v>50.03333333333333</v>
       </c>
       <c r="B442" t="n">
         <v>10080</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>51.68333333333333</v>
+        <v>45.95</v>
       </c>
       <c r="B443" t="n">
         <v>10080</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>201.65</v>
+        <v>36.3</v>
       </c>
       <c r="B444" t="n">
         <v>10080</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>50.03333333333333</v>
+        <v>46.31666666666667</v>
       </c>
       <c r="B445" t="n">
         <v>10080</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>45.95</v>
+        <v>36.53333333333333</v>
       </c>
       <c r="B446" t="n">
         <v>10080</v>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>36.3</v>
+        <v>43.78333333333333</v>
       </c>
       <c r="B447" t="n">
         <v>10080</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>46.31666666666667</v>
+        <v>53.81666666666667</v>
       </c>
       <c r="B448" t="n">
         <v>10080</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>36.53333333333333</v>
+        <v>42.06666666666667</v>
       </c>
       <c r="B449" t="n">
         <v>10080</v>
@@ -4031,7 +4031,7 @@
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>43.78333333333333</v>
+        <v>64.84999999999999</v>
       </c>
       <c r="B450" t="n">
         <v>10080</v>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>53.81666666666667</v>
+        <v>328.6166666666667</v>
       </c>
       <c r="B451" t="n">
         <v>10080</v>
@@ -4047,47 +4047,47 @@
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>42.06666666666667</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="B452" t="n">
-        <v>10080</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>64.84999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="B453" t="n">
-        <v>10080</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>328.6166666666667</v>
+        <v>260.4166666666667</v>
       </c>
       <c r="B454" t="n">
-        <v>10080</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>0.1166666666666667</v>
+        <v>536.75</v>
       </c>
       <c r="B455" t="n">
-        <v>2880</v>
+        <v>43200</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>0.1</v>
+        <v>104.65</v>
       </c>
       <c r="B456" t="n">
-        <v>2880</v>
+        <v>43200</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>260.4166666666667</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="B457" t="n">
         <v>2880</v>
@@ -4095,31 +4095,31 @@
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>536.75</v>
+        <v>0</v>
       </c>
       <c r="B458" t="n">
-        <v>43200</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>104.65</v>
+        <v>383.1</v>
       </c>
       <c r="B459" t="n">
-        <v>43200</v>
+        <v>900</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>0.01666666666666667</v>
+        <v>171.05</v>
       </c>
       <c r="B460" t="n">
-        <v>2880</v>
+        <v>43200</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>0</v>
+        <v>46.25</v>
       </c>
       <c r="B461" t="n">
         <v>2880</v>
@@ -4127,23 +4127,23 @@
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>383.1</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="B462" t="n">
-        <v>900</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>171.05</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="B463" t="n">
-        <v>43200</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>46.25</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="B464" t="n">
         <v>2880</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>0.9833333333333333</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="B465" t="n">
         <v>2880</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>0.4333333333333333</v>
+        <v>1.216666666666667</v>
       </c>
       <c r="B466" t="n">
         <v>2880</v>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>0.9833333333333333</v>
+        <v>1.366666666666667</v>
       </c>
       <c r="B467" t="n">
         <v>2880</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>1.166666666666667</v>
+        <v>1.683333333333333</v>
       </c>
       <c r="B468" t="n">
         <v>2880</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>1.216666666666667</v>
+        <v>1.016666666666667</v>
       </c>
       <c r="B469" t="n">
         <v>2880</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>1.366666666666667</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="B470" t="n">
         <v>2880</v>
@@ -4199,31 +4199,31 @@
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>1.683333333333333</v>
+        <v>1.233333333333333</v>
       </c>
       <c r="B471" t="n">
-        <v>2880</v>
+        <v>120</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>1.016666666666667</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="B472" t="n">
-        <v>2880</v>
+        <v>120</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="B473" t="n">
-        <v>2880</v>
+        <v>120</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>1.233333333333333</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="B474" t="n">
         <v>120</v>
@@ -4239,7 +4239,7 @@
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>0.01666666666666667</v>
+        <v>0.05</v>
       </c>
       <c r="B476" t="n">
         <v>120</v>
@@ -4247,7 +4247,7 @@
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.05</v>
       </c>
       <c r="B477" t="n">
         <v>120</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>0.05</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="B479" t="n">
         <v>120</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="B480" t="n">
         <v>120</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>0.01666666666666667</v>
+        <v>0.05</v>
       </c>
       <c r="B481" t="n">
         <v>120</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="B482" t="n">
         <v>120</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="B483" t="n">
         <v>120</v>
@@ -4303,31 +4303,31 @@
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>0.05</v>
+        <v>88.45</v>
       </c>
       <c r="B484" t="n">
-        <v>120</v>
+        <v>10080</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>0.4</v>
+        <v>106.3166666666667</v>
       </c>
       <c r="B485" t="n">
-        <v>120</v>
+        <v>10080</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>0.06666666666666667</v>
+        <v>120.7</v>
       </c>
       <c r="B486" t="n">
-        <v>120</v>
+        <v>10080</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>88.45</v>
+        <v>94</v>
       </c>
       <c r="B487" t="n">
         <v>10080</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>106.3166666666667</v>
+        <v>102.2833333333333</v>
       </c>
       <c r="B488" t="n">
         <v>10080</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>94</v>
+        <v>69.65000000000001</v>
       </c>
       <c r="B489" t="n">
         <v>10080</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>102.2833333333333</v>
+        <v>76.71666666666667</v>
       </c>
       <c r="B490" t="n">
         <v>10080</v>
@@ -4359,7 +4359,7 @@
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>69.65000000000001</v>
+        <v>87.46666666666667</v>
       </c>
       <c r="B491" t="n">
         <v>10080</v>
@@ -4367,7 +4367,7 @@
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>76.71666666666667</v>
+        <v>106</v>
       </c>
       <c r="B492" t="n">
         <v>10080</v>
@@ -4375,7 +4375,7 @@
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>87.46666666666667</v>
+        <v>119.05</v>
       </c>
       <c r="B493" t="n">
         <v>10080</v>
@@ -4383,7 +4383,7 @@
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>106</v>
+        <v>106.6166666666667</v>
       </c>
       <c r="B494" t="n">
         <v>10080</v>
@@ -4391,7 +4391,7 @@
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>106.6166666666667</v>
+        <v>105.65</v>
       </c>
       <c r="B495" t="n">
         <v>10080</v>
@@ -4399,7 +4399,7 @@
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>105.65</v>
+        <v>104.1333333333333</v>
       </c>
       <c r="B496" t="n">
         <v>10080</v>
@@ -4407,7 +4407,7 @@
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>104.1333333333333</v>
+        <v>124.2</v>
       </c>
       <c r="B497" t="n">
         <v>10080</v>
@@ -4431,7 +4431,7 @@
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>81.7</v>
+        <v>116.1166666666667</v>
       </c>
       <c r="B500" t="n">
         <v>10080</v>
@@ -4439,7 +4439,7 @@
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>109.55</v>
+        <v>81.7</v>
       </c>
       <c r="B501" t="n">
         <v>10080</v>
@@ -4447,7 +4447,7 @@
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>81.06666666666666</v>
+        <v>109.55</v>
       </c>
       <c r="B502" t="n">
         <v>10080</v>
@@ -4455,7 +4455,7 @@
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>77.03333333333333</v>
+        <v>81.06666666666666</v>
       </c>
       <c r="B503" t="n">
         <v>10080</v>
@@ -4463,7 +4463,7 @@
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>63.58333333333334</v>
+        <v>77.03333333333333</v>
       </c>
       <c r="B504" t="n">
         <v>10080</v>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>70.78333333333333</v>
+        <v>63.58333333333334</v>
       </c>
       <c r="B505" t="n">
         <v>10080</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>63.51666666666667</v>
+        <v>70.78333333333333</v>
       </c>
       <c r="B506" t="n">
         <v>10080</v>
@@ -4487,15 +4487,15 @@
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>2.133333333333333</v>
+        <v>63.51666666666667</v>
       </c>
       <c r="B507" t="n">
-        <v>2880</v>
+        <v>10080</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>3.883333333333333</v>
+        <v>2.133333333333333</v>
       </c>
       <c r="B508" t="n">
         <v>2880</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>4.566666666666666</v>
+        <v>3.883333333333333</v>
       </c>
       <c r="B509" t="n">
         <v>2880</v>
@@ -4511,7 +4511,7 @@
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>4.7</v>
+        <v>4.566666666666666</v>
       </c>
       <c r="B510" t="n">
         <v>2880</v>
@@ -4519,7 +4519,7 @@
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>4.733333333333333</v>
+        <v>4.7</v>
       </c>
       <c r="B511" t="n">
         <v>2880</v>
@@ -4527,15 +4527,15 @@
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>3.8</v>
+        <v>4.733333333333333</v>
       </c>
       <c r="B512" t="n">
-        <v>10080</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>5.8</v>
+        <v>3.8</v>
       </c>
       <c r="B513" t="n">
         <v>10080</v>
@@ -4543,7 +4543,7 @@
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="B514" t="n">
         <v>10080</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>6.166666666666667</v>
+        <v>5.3</v>
       </c>
       <c r="B515" t="n">
         <v>10080</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>6.1</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="B516" t="n">
         <v>10080</v>
@@ -4567,15 +4567,15 @@
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>11.95</v>
+        <v>6.1</v>
       </c>
       <c r="B517" t="n">
-        <v>2880</v>
+        <v>10080</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>21.6</v>
+        <v>11.95</v>
       </c>
       <c r="B518" t="n">
         <v>2880</v>
@@ -4583,7 +4583,7 @@
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>26.1</v>
+        <v>21.6</v>
       </c>
       <c r="B519" t="n">
         <v>2880</v>
@@ -4591,7 +4591,7 @@
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>25.66666666666667</v>
+        <v>26.1</v>
       </c>
       <c r="B520" t="n">
         <v>2880</v>
@@ -4599,7 +4599,7 @@
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>23.48333333333333</v>
+        <v>25.66666666666667</v>
       </c>
       <c r="B521" t="n">
         <v>2880</v>
@@ -4607,23 +4607,23 @@
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>46.61666666666667</v>
+        <v>23.48333333333333</v>
       </c>
       <c r="B522" t="n">
-        <v>10080</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>2.766666666666667</v>
+        <v>46.61666666666667</v>
       </c>
       <c r="B523" t="n">
-        <v>2880</v>
+        <v>10080</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>2.316666666666666</v>
+        <v>2.766666666666667</v>
       </c>
       <c r="B524" t="n">
         <v>2880</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>2.866666666666667</v>
+        <v>2.316666666666666</v>
       </c>
       <c r="B525" t="n">
         <v>2880</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>6.7</v>
+        <v>2.866666666666667</v>
       </c>
       <c r="B526" t="n">
         <v>2880</v>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>27.9</v>
+        <v>6.7</v>
       </c>
       <c r="B527" t="n">
         <v>2880</v>
@@ -4655,7 +4655,7 @@
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>29.68333333333333</v>
+        <v>27.9</v>
       </c>
       <c r="B528" t="n">
         <v>2880</v>
@@ -4663,7 +4663,7 @@
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>29.85</v>
+        <v>29.68333333333333</v>
       </c>
       <c r="B529" t="n">
         <v>2880</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>29.45</v>
+        <v>29.85</v>
       </c>
       <c r="B530" t="n">
         <v>2880</v>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>29.06666666666667</v>
+        <v>29.45</v>
       </c>
       <c r="B531" t="n">
         <v>2880</v>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>28.11666666666667</v>
+        <v>29.06666666666667</v>
       </c>
       <c r="B532" t="n">
         <v>2880</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>1.233333333333333</v>
+        <v>28.11666666666667</v>
       </c>
       <c r="B533" t="n">
         <v>2880</v>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>1.283333333333333</v>
+        <v>1.233333333333333</v>
       </c>
       <c r="B534" t="n">
         <v>2880</v>
@@ -4711,7 +4711,7 @@
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>25.76666666666667</v>
+        <v>1.283333333333333</v>
       </c>
       <c r="B535" t="n">
         <v>2880</v>
@@ -4719,7 +4719,7 @@
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>1.683333333333333</v>
+        <v>25.76666666666667</v>
       </c>
       <c r="B536" t="n">
         <v>2880</v>
@@ -4727,7 +4727,7 @@
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>1.5</v>
+        <v>1.683333333333333</v>
       </c>
       <c r="B537" t="n">
         <v>2880</v>
@@ -4735,7 +4735,7 @@
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="B538" t="n">
         <v>2880</v>
@@ -4743,7 +4743,7 @@
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7</v>
       </c>
       <c r="B539" t="n">
         <v>2880</v>
@@ -4751,7 +4751,7 @@
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="B540" t="n">
         <v>2880</v>
@@ -4759,7 +4759,7 @@
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>0.9</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="B541" t="n">
         <v>2880</v>
@@ -4767,7 +4767,7 @@
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>0.01666666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="B542" t="n">
         <v>2880</v>
@@ -4775,7 +4775,7 @@
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>0.4</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="B543" t="n">
         <v>2880</v>
@@ -4783,7 +4783,7 @@
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.4</v>
       </c>
       <c r="B544" t="n">
         <v>2880</v>
@@ -4791,7 +4791,7 @@
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="B545" t="n">
         <v>2880</v>
@@ -4799,7 +4799,7 @@
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>0.7</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="B546" t="n">
         <v>2880</v>
@@ -4807,7 +4807,7 @@
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="B547" t="n">
         <v>2880</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="B548" t="n">
         <v>2880</v>
@@ -4823,7 +4823,7 @@
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>0.01666666666666667</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="B549" t="n">
         <v>2880</v>
@@ -4831,7 +4831,7 @@
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="B550" t="n">
         <v>2880</v>
@@ -4839,23 +4839,23 @@
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>1.116666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="B551" t="n">
-        <v>120</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>0.85</v>
+        <v>1.116666666666667</v>
       </c>
       <c r="B552" t="n">
-        <v>2880</v>
+        <v>120</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>0.8833333333333333</v>
+        <v>0.85</v>
       </c>
       <c r="B553" t="n">
         <v>2880</v>
@@ -4863,7 +4863,7 @@
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>0.7</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="B554" t="n">
         <v>2880</v>
@@ -4871,7 +4871,7 @@
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="B555" t="n">
         <v>2880</v>
@@ -4879,7 +4879,7 @@
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>0.01666666666666667</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="B556" t="n">
         <v>2880</v>
@@ -4895,7 +4895,7 @@
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>8.016666666666667</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="B558" t="n">
         <v>2880</v>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>1.216666666666667</v>
+        <v>8.016666666666667</v>
       </c>
       <c r="B559" t="n">
         <v>2880</v>
@@ -4911,7 +4911,7 @@
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>0.35</v>
+        <v>1.216666666666667</v>
       </c>
       <c r="B560" t="n">
         <v>2880</v>
@@ -4919,7 +4919,7 @@
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>0.95</v>
+        <v>0.35</v>
       </c>
       <c r="B561" t="n">
         <v>2880</v>
@@ -4927,7 +4927,7 @@
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="B562" t="n">
         <v>2880</v>
@@ -4935,7 +4935,7 @@
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>3.95</v>
+        <v>0.85</v>
       </c>
       <c r="B563" t="n">
         <v>2880</v>
@@ -4943,9 +4943,81 @@
     </row>
     <row r="564">
       <c r="A564" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="B564" t="n">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
         <v>3.866666666666667</v>
       </c>
-      <c r="B564" t="n">
+      <c r="B565" t="n">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>2.133333333333333</v>
+      </c>
+      <c r="B566" t="n">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>5.383333333333334</v>
+      </c>
+      <c r="B567" t="n">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>2.483333333333333</v>
+      </c>
+      <c r="B568" t="n">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="B569" t="n">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="B570" t="n">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="B571" t="n">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="n">
+        <v>2.133333333333333</v>
+      </c>
+      <c r="B572" t="n">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="B573" t="n">
         <v>2880</v>
       </c>
     </row>
